--- a/Decision Modeling/Assignment/Assignment 4/Question_5.xlsx
+++ b/Decision Modeling/Assignment/Assignment 4/Question_5.xlsx
@@ -541,41 +541,39 @@
           <t>Critic_0</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>3</v>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="n">
-        <v>5</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="n">
-        <v>5</v>
-      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
-        <v>4</v>
-      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>3</v>
+      </c>
       <c r="R2" t="inlineStr"/>
-      <c r="S2" t="n">
-        <v>2</v>
-      </c>
-      <c r="T2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="n">
+        <v>2</v>
+      </c>
       <c r="U2" t="inlineStr"/>
     </row>
     <row r="3">
@@ -585,40 +583,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" t="n">
-        <v>4</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
+      <c r="I3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>2</v>
+      </c>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="n">
-        <v>4</v>
-      </c>
-      <c r="O3" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="O3" t="n">
+        <v>2</v>
+      </c>
       <c r="P3" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>4</v>
+      </c>
+      <c r="R3" t="n">
+        <v>2</v>
+      </c>
       <c r="S3" t="n">
         <v>5</v>
       </c>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -627,48 +631,46 @@
           <t>Critic_2</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="n">
+        <v>4</v>
+      </c>
       <c r="E4" t="n">
         <v>3</v>
       </c>
-      <c r="F4" t="n">
-        <v>4</v>
-      </c>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>4</v>
-      </c>
-      <c r="K4" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>3</v>
+      </c>
       <c r="L4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
+      <c r="O4" t="n">
+        <v>1</v>
+      </c>
       <c r="P4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="n">
-        <v>3</v>
-      </c>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="n">
-        <v>5</v>
-      </c>
-      <c r="U4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="n">
+        <v>3</v>
+      </c>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -680,45 +682,45 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="n">
-        <v>3</v>
-      </c>
-      <c r="G5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="n">
+        <v>3</v>
+      </c>
       <c r="H5" t="n">
         <v>4</v>
       </c>
-      <c r="I5" t="n">
-        <v>4</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
-        <v>2</v>
-      </c>
+      <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -728,17 +730,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
         <v>3</v>
       </c>
@@ -746,33 +744,39 @@
         <v>2</v>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
-      </c>
-      <c r="I6" t="n">
-        <v>5</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>4</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
       <c r="N6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4</v>
+      </c>
       <c r="Q6" t="n">
-        <v>1</v>
-      </c>
-      <c r="R6" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2</v>
+      </c>
       <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
+      <c r="T6" t="n">
+        <v>1</v>
+      </c>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -780,52 +784,42 @@
           <t>Critic_5</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
+      <c r="B7" t="n">
+        <v>3</v>
+      </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
-      <c r="G7" t="n">
-        <v>3</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>4</v>
-      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
         <v>2</v>
       </c>
-      <c r="K7" t="n">
-        <v>5</v>
-      </c>
-      <c r="L7" t="n">
-        <v>4</v>
-      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
-        <v>3</v>
-      </c>
-      <c r="N7" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="n">
         <v>4</v>
       </c>
-      <c r="Q7" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q7" t="inlineStr"/>
       <c r="R7" t="n">
-        <v>3</v>
-      </c>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="n">
-        <v>4</v>
-      </c>
-      <c r="U7" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="S7" t="n">
+        <v>3</v>
+      </c>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -836,51 +830,39 @@
       <c r="B8" t="n">
         <v>4</v>
       </c>
-      <c r="C8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
-      <c r="G8" t="n">
-        <v>5</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>3</v>
+      </c>
       <c r="M8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N8" t="inlineStr"/>
-      <c r="O8" t="n">
-        <v>1</v>
-      </c>
+      <c r="O8" t="inlineStr"/>
       <c r="P8" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q8" t="inlineStr"/>
       <c r="R8" t="n">
-        <v>2</v>
-      </c>
-      <c r="S8" t="n">
-        <v>3</v>
-      </c>
-      <c r="T8" t="n">
-        <v>5</v>
-      </c>
-      <c r="U8" t="n">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -888,50 +870,58 @@
           <t>Critic_7</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>4</v>
-      </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
         <v>3</v>
       </c>
-      <c r="D9" t="n">
-        <v>5</v>
-      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="F9" t="n">
+        <v>5</v>
+      </c>
       <c r="G9" t="n">
         <v>4</v>
       </c>
-      <c r="H9" t="inlineStr"/>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
       <c r="I9" t="n">
-        <v>2</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="n">
-        <v>3</v>
-      </c>
-      <c r="L9" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>5</v>
+      </c>
       <c r="M9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P9" t="n">
         <v>5</v>
       </c>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="n">
-        <v>3</v>
-      </c>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="n">
+        <v>3</v>
+      </c>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="n">
+        <v>1</v>
+      </c>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -940,57 +930,47 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
         <v>5</v>
       </c>
-      <c r="D10" t="n">
-        <v>3</v>
-      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
-      </c>
-      <c r="K10" t="n">
-        <v>4</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>4</v>
       </c>
-      <c r="M10" t="n">
-        <v>5</v>
-      </c>
+      <c r="M10" t="inlineStr"/>
       <c r="N10" t="n">
-        <v>2</v>
-      </c>
-      <c r="O10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O10" t="n">
+        <v>3</v>
+      </c>
       <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="n">
-        <v>3</v>
-      </c>
-      <c r="R10" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
       <c r="S10" t="n">
-        <v>4</v>
-      </c>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="n">
-        <v>2</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="T10" t="n">
+        <v>4</v>
+      </c>
+      <c r="U10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -998,20 +978,22 @@
           <t>Critic_9</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
+      <c r="B11" t="n">
+        <v>2</v>
+      </c>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
       <c r="F11" t="n">
         <v>4</v>
       </c>
-      <c r="G11" t="n">
-        <v>3</v>
-      </c>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="n">
         <v>3</v>
@@ -1020,23 +1002,23 @@
         <v>5</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O11" t="n">
         <v>2</v>
       </c>
-      <c r="P11" t="inlineStr"/>
+      <c r="P11" t="n">
+        <v>1</v>
+      </c>
       <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="n">
-        <v>5</v>
-      </c>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="n">
-        <v>2</v>
-      </c>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="n">
+        <v>4</v>
+      </c>
+      <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
     </row>
     <row r="12">
@@ -1047,52 +1029,48 @@
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
-        <v>3</v>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>5</v>
+      </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="n">
-        <v>3</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" t="n">
-        <v>3</v>
-      </c>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>4</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
       <c r="N12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q12" t="n">
         <v>2</v>
       </c>
-      <c r="R12" t="n">
-        <v>5</v>
-      </c>
+      <c r="R12" t="inlineStr"/>
       <c r="S12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T12" t="n">
         <v>5</v>
       </c>
-      <c r="U12" t="n">
-        <v>5</v>
-      </c>
+      <c r="U12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1101,43 +1079,51 @@
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
-      <c r="C13" t="n">
-        <v>5</v>
-      </c>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="n">
         <v>2</v>
       </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>2</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2</v>
+      </c>
       <c r="G13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>5</v>
+      </c>
       <c r="K13" t="n">
-        <v>2</v>
-      </c>
-      <c r="L13" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="L13" t="n">
+        <v>2</v>
+      </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="n">
-        <v>4</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1</v>
-      </c>
+      <c r="O13" t="n">
+        <v>5</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
       <c r="S13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T13" t="n">
-        <v>1</v>
-      </c>
-      <c r="U13" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1145,49 +1131,45 @@
           <t>Critic_12</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>2</v>
-      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
+      <c r="D14" t="n">
+        <v>3</v>
+      </c>
+      <c r="E14" t="n">
+        <v>4</v>
+      </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I14" t="n">
         <v>2</v>
       </c>
       <c r="J14" t="n">
-        <v>3</v>
-      </c>
-      <c r="K14" t="n">
-        <v>4</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="n">
-        <v>5</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
+        <v>2</v>
+      </c>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q14" t="n">
-        <v>2</v>
-      </c>
-      <c r="R14" t="n">
-        <v>2</v>
-      </c>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="n">
-        <v>2</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="n">
+        <v>4</v>
+      </c>
+      <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
     </row>
     <row r="15">
@@ -1197,49 +1179,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2</v>
+      </c>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="n">
-        <v>4</v>
-      </c>
-      <c r="G15" t="n">
-        <v>4</v>
-      </c>
-      <c r="H15" t="n">
-        <v>5</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>4</v>
+      </c>
       <c r="J15" t="n">
-        <v>4</v>
-      </c>
-      <c r="K15" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="K15" t="n">
+        <v>3</v>
+      </c>
       <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
       <c r="N15" t="n">
         <v>1</v>
       </c>
       <c r="O15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P15" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="n">
-        <v>3</v>
-      </c>
-      <c r="S15" t="n">
-        <v>3</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>3</v>
+      </c>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
       <c r="T15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U15" t="inlineStr"/>
     </row>
@@ -1250,45 +1232,51 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C16" t="n">
         <v>4</v>
       </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="n">
-        <v>5</v>
-      </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="n">
-        <v>2</v>
-      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="n">
+        <v>2</v>
+      </c>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="n">
-        <v>5</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" t="n">
-        <v>1</v>
-      </c>
-      <c r="L16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>2</v>
+      </c>
       <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="n">
-        <v>2</v>
-      </c>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="n">
-        <v>2</v>
-      </c>
+      <c r="N16" t="n">
+        <v>1</v>
+      </c>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" t="inlineStr"/>
       <c r="S16" t="n">
-        <v>5</v>
-      </c>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="T16" t="n">
+        <v>4</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
